--- a/Assets/Data/Excel/Resource.xlsx
+++ b/Assets/Data/Excel/Resource.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\LeftInHell\LeftInHell\Assets\Data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45F8C0A7-BE1B-4B55-9728-CB214517A090}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A5501CC-4F8E-4D25-A246-E5D3254F089D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="31560" yWindow="3360" windowWidth="18360" windowHeight="11385" xr2:uid="{3E5D5C58-5C36-4C8C-BD7D-C0F90E6155EA}"/>
   </bookViews>
@@ -60,15 +60,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Assets/Resource/Sprite/Item/Bandage.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/Resource/Sprite/Item/Cloth.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>천</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Resource/Sprite/UI/Item/Bandage.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Resource/Sprite/UI/Item/Cloth.png</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -482,7 +482,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -493,10 +493,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Data/Excel/Resource.xlsx
+++ b/Assets/Data/Excel/Resource.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\LeftInHell\LeftInHell\Assets\Data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A5501CC-4F8E-4D25-A246-E5D3254F089D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B267DF26-7431-4D8D-A486-2F5FBADDDCC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31560" yWindow="3360" windowWidth="18360" windowHeight="11385" xr2:uid="{3E5D5C58-5C36-4C8C-BD7D-C0F90E6155EA}"/>
+    <workbookView xWindow="10320" yWindow="3945" windowWidth="17265" windowHeight="11385" xr2:uid="{3E5D5C58-5C36-4C8C-BD7D-C0F90E6155EA}"/>
   </bookViews>
   <sheets>
     <sheet name="ImageResource" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>ID(int)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -69,6 +69,14 @@
   </si>
   <si>
     <t>Assets/Resource/Sprite/UI/Item/Cloth.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Resource/Sprite/UI/Item/TestItemCase.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템케이스</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -442,7 +450,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18EC5BB6-B635-465B-BB22-B152EB7A586F}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
@@ -451,7 +459,7 @@
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -497,6 +505,17 @@
       </c>
       <c r="C4" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
